--- a/ig/ch-epr-fhir/StructureDefinition-CH.mCSD.Practitioner.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-CH.mCSD.Practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0-ballot</t>
+    <t>4.0.1-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T20:14:33+00:00</t>
+    <t>2024-05-16T21:49:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-epr-fhir/StructureDefinition-CH.mCSD.Practitioner.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-CH.mCSD.Practitioner.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2775" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2814" uniqueCount="533">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1-ballot</t>
+    <t>4.0.1-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T21:49:21+00:00</t>
+    <t>2024-11-19T17:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -438,7 +438,7 @@
     <t>Identifies where the resource comes from</t>
   </si>
   <si>
-    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
   </si>
   <si>
     <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
@@ -458,7 +458,7 @@
     <t>Profiles this resource claims to conform to</t>
   </si>
   <si>
-    <t>A list of profiles (references to [StructureDefinition](structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](structuredefinition-definitions.html#StructureDefinition.url).</t>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
   </si>
   <si>
     <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
@@ -726,6 +726,24 @@
   <si>
     <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
   &lt;system value="urn:oid:2.16.756.5.30.1.123.100.2.1.1"/&gt;
+&lt;/valueIdentifier&gt;</t>
+  </si>
+  <si>
+    <t>Practitioner.identifier:LDAP</t>
+  </si>
+  <si>
+    <t>LDAP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier {http://fhir.ch/ig/ch-epr-fhir/StructureDefinition/LdapIdentifier}
+</t>
+  </si>
+  <si>
+    <t>LDAP DN (Distinguished Name), if the practitioner is stored in an HPD</t>
+  </si>
+  <si>
+    <t>&lt;valueIdentifier xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="urn:ietf:rfc:4514"/&gt;
 &lt;/valueIdentifier&gt;</t>
   </si>
   <si>
@@ -1960,7 +1978,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP72"/>
+  <dimension ref="A1:AP73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4543,9 +4561,11 @@
         <v>228</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4566,32 +4586,28 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N22" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="N22" s="2"/>
+      <c r="O22" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="P22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q22" s="2"/>
+      <c r="R22" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S22" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="O22" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="P22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q22" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="R22" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S22" t="s" s="2">
-        <v>80</v>
-      </c>
       <c r="T22" t="s" s="2">
         <v>80</v>
       </c>
@@ -4629,13 +4645,13 @@
         <v>80</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>80</v>
@@ -4644,30 +4660,30 @@
         <v>104</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>80</v>
+        <v>208</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>237</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4675,11 +4691,11 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G23" t="s" s="2">
         <v>92</v>
       </c>
-      <c r="G23" t="s" s="2">
-        <v>82</v>
-      </c>
       <c r="H23" t="s" s="2">
         <v>80</v>
       </c>
@@ -4687,109 +4703,111 @@
         <v>80</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L23" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="N23" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="O23" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="P23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q23" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L23" t="s" s="2">
+      <c r="R23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M23" t="s" s="2">
+      <c r="AL23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN23" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="N23" t="s" s="2">
+      <c r="AO23" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP23" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="P23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q23" s="2"/>
-      <c r="R23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL23" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="AM23" t="s" s="2">
-        <v>246</v>
-      </c>
-      <c r="AN23" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="AO23" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AP23" t="s" s="2">
-        <v>80</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4797,10 +4815,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>80</v>
@@ -4812,16 +4830,20 @@
         <v>80</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>106</v>
+        <v>244</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>107</v>
+        <v>245</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="O24" t="s" s="2">
+        <v>248</v>
+      </c>
       <c r="P24" t="s" s="2">
         <v>80</v>
       </c>
@@ -4869,34 +4891,34 @@
         <v>80</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>109</v>
+        <v>243</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>80</v>
+        <v>250</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>80</v>
+        <v>251</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>110</v>
+        <v>252</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>80</v>
+        <v>253</v>
       </c>
       <c r="AP24" t="s" s="2">
         <v>80</v>
@@ -4904,21 +4926,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>80</v>
@@ -4930,17 +4952,15 @@
         <v>80</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
         <v>80</v>
@@ -4977,31 +4997,31 @@
         <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>80</v>
@@ -5024,46 +5044,44 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>169</v>
+        <v>113</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>252</v>
+        <v>114</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>253</v>
+        <v>115</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>255</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
         <v>80</v>
       </c>
@@ -5087,43 +5105,43 @@
         <v>80</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>257</v>
+        <v>80</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>258</v>
+        <v>80</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AD26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>259</v>
+        <v>120</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>80</v>
@@ -5132,13 +5150,13 @@
         <v>80</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>260</v>
+        <v>80</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="AP26" t="s" s="2">
         <v>80</v>
@@ -5146,10 +5164,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5166,25 +5184,25 @@
         <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>80</v>
@@ -5209,13 +5227,13 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>80</v>
+        <v>262</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>80</v>
+        <v>263</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
@@ -5233,7 +5251,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>81</v>
@@ -5248,19 +5266,19 @@
         <v>104</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>269</v>
+        <v>80</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>80</v>
+        <v>267</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>80</v>
@@ -5268,14 +5286,14 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>273</v>
+        <v>80</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
@@ -5297,15 +5315,17 @@
         <v>106</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="O28" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5353,7 +5373,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>81</v>
@@ -5368,19 +5388,19 @@
         <v>104</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>279</v>
+        <v>80</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>282</v>
+        <v>80</v>
       </c>
       <c r="AP28" t="s" s="2">
         <v>80</v>
@@ -5388,14 +5408,14 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>80</v>
+        <v>278</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5411,18 +5431,20 @@
         <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N29" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>80</v>
@@ -5471,7 +5493,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>81</v>
@@ -5483,22 +5505,22 @@
         <v>80</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>80</v>
+        <v>283</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>80</v>
+        <v>284</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>80</v>
+        <v>285</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>80</v>
+        <v>286</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>80</v>
+        <v>287</v>
       </c>
       <c r="AP29" t="s" s="2">
         <v>80</v>
@@ -5506,10 +5528,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5520,7 +5542,7 @@
         <v>81</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>80</v>
@@ -5532,13 +5554,13 @@
         <v>80</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5577,29 +5599,31 @@
         <v>80</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>80</v>
@@ -5622,14 +5646,12 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="C31" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
         <v>80</v>
       </c>
@@ -5638,7 +5660,7 @@
         <v>81</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>80</v>
@@ -5650,13 +5672,13 @@
         <v>80</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>291</v>
+        <v>113</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5695,16 +5717,14 @@
         <v>80</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AC31" s="2"/>
       <c r="AD31" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>120</v>
@@ -5716,7 +5736,7 @@
         <v>82</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>121</v>
@@ -5725,7 +5745,7 @@
         <v>80</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>293</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>80</v>
@@ -5745,9 +5765,11 @@
         <v>294</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>291</v>
+      </c>
+      <c r="C32" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="D32" t="s" s="2">
         <v>80</v>
       </c>
@@ -5768,13 +5790,13 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>106</v>
+        <v>296</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5798,7 +5820,7 @@
         <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
         <v>80</v>
@@ -5825,25 +5847,25 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5867,14 +5889,14 @@
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>80</v>
@@ -5883,20 +5905,18 @@
         <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K33" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="M33" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>303</v>
-      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>80</v>
@@ -5918,7 +5938,7 @@
         <v>80</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="X33" t="s" s="2">
         <v>80</v>
@@ -5945,34 +5965,34 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>305</v>
+        <v>80</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>306</v>
+        <v>80</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>307</v>
+        <v>80</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>308</v>
+        <v>80</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>309</v>
+        <v>80</v>
       </c>
       <c r="AP33" t="s" s="2">
         <v>80</v>
@@ -5980,21 +6000,21 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>80</v>
+        <v>305</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>80</v>
@@ -6003,18 +6023,20 @@
         <v>80</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>284</v>
+        <v>306</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>307</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>80</v>
@@ -6063,34 +6085,34 @@
         <v>80</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>109</v>
+        <v>309</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>80</v>
+        <v>310</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>80</v>
+        <v>311</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>80</v>
+        <v>312</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>80</v>
+        <v>313</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>80</v>
+        <v>314</v>
       </c>
       <c r="AP34" t="s" s="2">
         <v>80</v>
@@ -6098,10 +6120,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6112,7 +6134,7 @@
         <v>81</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>80</v>
@@ -6124,13 +6146,13 @@
         <v>80</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6169,29 +6191,31 @@
         <v>80</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AC35" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>80</v>
@@ -6214,14 +6238,12 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="C36" t="s" s="2">
-        <v>313</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
         <v>80</v>
       </c>
@@ -6230,7 +6252,7 @@
         <v>81</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>80</v>
@@ -6242,13 +6264,13 @@
         <v>80</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>314</v>
+        <v>113</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>315</v>
+        <v>293</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6287,16 +6309,14 @@
         <v>80</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC36" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AC36" s="2"/>
       <c r="AD36" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>120</v>
@@ -6308,7 +6328,7 @@
         <v>82</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>121</v>
@@ -6317,7 +6337,7 @@
         <v>80</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>316</v>
+        <v>80</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>80</v>
@@ -6337,9 +6357,11 @@
         <v>317</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>316</v>
+      </c>
+      <c r="C37" t="s" s="2">
+        <v>318</v>
+      </c>
       <c r="D37" t="s" s="2">
         <v>80</v>
       </c>
@@ -6360,13 +6382,13 @@
         <v>80</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6390,7 +6412,7 @@
         <v>80</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
         <v>80</v>
@@ -6417,25 +6439,25 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>80</v>
+        <v>218</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>80</v>
+        <v>321</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>80</v>
@@ -6452,10 +6474,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6466,7 +6488,7 @@
         <v>81</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>80</v>
@@ -6475,16 +6497,16 @@
         <v>80</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K38" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>319</v>
+        <v>300</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>320</v>
+        <v>301</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6508,7 +6530,7 @@
         <v>80</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="X38" t="s" s="2">
         <v>80</v>
@@ -6535,34 +6557,34 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>323</v>
+        <v>80</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>324</v>
+        <v>80</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>325</v>
+        <v>80</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>326</v>
+        <v>80</v>
       </c>
       <c r="AP38" t="s" s="2">
         <v>80</v>
@@ -6570,10 +6592,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6584,7 +6606,7 @@
         <v>81</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>80</v>
@@ -6593,16 +6615,16 @@
         <v>80</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6653,34 +6675,34 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>109</v>
+        <v>326</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>80</v>
+        <v>327</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>80</v>
+        <v>328</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>80</v>
+        <v>329</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>80</v>
+        <v>330</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>80</v>
+        <v>331</v>
       </c>
       <c r="AP39" t="s" s="2">
         <v>80</v>
@@ -6688,10 +6710,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6702,7 +6724,7 @@
         <v>81</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>80</v>
@@ -6714,13 +6736,13 @@
         <v>80</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6759,29 +6781,31 @@
         <v>80</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="AC40" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>80</v>
@@ -6804,14 +6828,12 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>330</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
         <v>80</v>
       </c>
@@ -6832,17 +6854,15 @@
         <v>80</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>331</v>
+        <v>113</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>334</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>80</v>
@@ -6879,16 +6899,14 @@
         <v>80</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC41" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="AC41" s="2"/>
       <c r="AD41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>120</v>
@@ -6915,7 +6933,7 @@
         <v>80</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>335</v>
+        <v>80</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>80</v>
@@ -6926,12 +6944,14 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="C42" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="D42" t="s" s="2">
         <v>80</v>
       </c>
@@ -6940,7 +6960,7 @@
         <v>81</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s" s="2">
         <v>80</v>
@@ -6952,15 +6972,17 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>106</v>
+        <v>336</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>295</v>
+        <v>337</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="N42" s="2"/>
+        <v>338</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>339</v>
+      </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>80</v>
@@ -6982,7 +7004,7 @@
         <v>80</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>297</v>
+        <v>80</v>
       </c>
       <c r="X42" t="s" s="2">
         <v>80</v>
@@ -7009,19 +7031,19 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>298</v>
+        <v>120</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI42" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>80</v>
@@ -7033,7 +7055,7 @@
         <v>80</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>80</v>
+        <v>340</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>80</v>
@@ -7044,10 +7066,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7058,7 +7080,7 @@
         <v>81</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>80</v>
@@ -7067,16 +7089,16 @@
         <v>80</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K43" t="s" s="2">
         <v>106</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>338</v>
+        <v>300</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>339</v>
+        <v>301</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7100,7 +7122,7 @@
         <v>80</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>80</v>
+        <v>302</v>
       </c>
       <c r="X43" t="s" s="2">
         <v>80</v>
@@ -7127,19 +7149,19 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>80</v>
@@ -7148,10 +7170,10 @@
         <v>80</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>341</v>
+        <v>80</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>342</v>
+        <v>80</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>80</v>
@@ -7162,10 +7184,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7176,7 +7198,7 @@
         <v>81</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>80</v>
@@ -7188,18 +7210,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>346</v>
-      </c>
       <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>347</v>
-      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>80</v>
       </c>
@@ -7247,13 +7267,13 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>80</v>
@@ -7268,13 +7288,13 @@
         <v>80</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>351</v>
+        <v>80</v>
       </c>
       <c r="AP44" t="s" s="2">
         <v>80</v>
@@ -7282,10 +7302,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7296,7 +7316,7 @@
         <v>81</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>80</v>
@@ -7308,19 +7328,17 @@
         <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>356</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="P45" t="s" s="2">
         <v>80</v>
@@ -7357,23 +7375,25 @@
         <v>80</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AC45" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD45" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>80</v>
@@ -7382,19 +7402,19 @@
         <v>104</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>359</v>
+        <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>360</v>
+        <v>80</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="AP45" t="s" s="2">
         <v>80</v>
@@ -7402,14 +7422,12 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>365</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
         <v>80</v>
       </c>
@@ -7427,22 +7445,22 @@
         <v>80</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="O46" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>80</v>
@@ -7479,19 +7497,17 @@
         <v>80</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>363</v>
+      </c>
+      <c r="AC46" s="2"/>
       <c r="AD46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>81</v>
@@ -7500,25 +7516,25 @@
         <v>82</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>218</v>
+        <v>80</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>369</v>
+        <v>104</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>80</v>
+        <v>364</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="AP46" t="s" s="2">
         <v>80</v>
@@ -7526,13 +7542,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C47" t="s" s="2">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D47" t="s" s="2">
         <v>80</v>
@@ -7554,19 +7570,19 @@
         <v>80</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>80</v>
@@ -7615,7 +7631,7 @@
         <v>80</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>81</v>
@@ -7627,22 +7643,22 @@
         <v>218</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL47" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AO47" t="s" s="2">
         <v>378</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="AP47" t="s" s="2">
         <v>80</v>
@@ -7653,7 +7669,7 @@
         <v>379</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>380</v>
@@ -7684,13 +7700,13 @@
         <v>382</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>80</v>
@@ -7739,7 +7755,7 @@
         <v>80</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>81</v>
@@ -7751,7 +7767,7 @@
         <v>218</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>80</v>
@@ -7760,13 +7776,13 @@
         <v>383</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="AO48" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>80</v>
@@ -7777,9 +7793,11 @@
         <v>384</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>357</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>385</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>80</v>
       </c>
@@ -7800,19 +7818,19 @@
         <v>80</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>80</v>
@@ -7861,7 +7879,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>81</v>
@@ -7873,22 +7891,22 @@
         <v>218</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>390</v>
+        <v>374</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>391</v>
+        <v>80</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>394</v>
+        <v>377</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>395</v>
+        <v>378</v>
       </c>
       <c r="AP49" t="s" s="2">
         <v>80</v>
@@ -7896,10 +7914,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7910,7 +7928,7 @@
         <v>81</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>80</v>
@@ -7919,20 +7937,22 @@
         <v>80</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>169</v>
+        <v>390</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="N50" s="2"/>
+        <v>392</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>393</v>
+      </c>
       <c r="O50" t="s" s="2">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>80</v>
@@ -7957,58 +7977,58 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AO50" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="Z50" t="s" s="2">
-        <v>401</v>
-      </c>
-      <c r="AA50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF50" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="AG50" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>403</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="AP50" t="s" s="2">
         <v>80</v>
@@ -8016,10 +8036,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8042,17 +8062,17 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>408</v>
+        <v>169</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>80</v>
@@ -8077,13 +8097,13 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>80</v>
+        <v>261</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>80</v>
+        <v>405</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>80</v>
+        <v>406</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8101,7 +8121,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>81</v>
@@ -8116,19 +8136,19 @@
         <v>104</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>80</v>
+        <v>407</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="AO51" t="s" s="2">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="AP51" t="s" s="2">
         <v>80</v>
@@ -8136,10 +8156,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8150,7 +8170,7 @@
         <v>81</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>80</v>
@@ -8159,20 +8179,20 @@
         <v>80</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>80</v>
@@ -8221,13 +8241,13 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>80</v>
@@ -8239,16 +8259,16 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>80</v>
+        <v>417</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>80</v>
+        <v>418</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="AO52" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="AP52" t="s" s="2">
         <v>80</v>
@@ -8256,10 +8276,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8267,7 +8287,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>82</v>
@@ -8282,16 +8302,18 @@
         <v>80</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
         <v>425</v>
       </c>
-      <c r="M53" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="N53" s="2"/>
-      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>80</v>
       </c>
@@ -8339,7 +8361,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>81</v>
@@ -8360,13 +8382,13 @@
         <v>80</v>
       </c>
       <c r="AM53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AO53" t="s" s="2">
         <v>427</v>
-      </c>
-      <c r="AN53" t="s" s="2">
-        <v>428</v>
-      </c>
-      <c r="AO53" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="AP53" t="s" s="2">
         <v>80</v>
@@ -8374,10 +8396,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8385,10 +8407,10 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>80</v>
@@ -8400,13 +8422,13 @@
         <v>80</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>106</v>
+        <v>429</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>107</v>
+        <v>430</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>108</v>
+        <v>431</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8457,19 +8479,19 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>109</v>
+        <v>428</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>80</v>
@@ -8478,13 +8500,13 @@
         <v>80</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>110</v>
+        <v>433</v>
       </c>
       <c r="AO54" t="s" s="2">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="AP54" t="s" s="2">
         <v>80</v>
@@ -8492,21 +8514,21 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>80</v>
@@ -8518,17 +8540,15 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>80</v>
@@ -8577,19 +8597,19 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>80</v>
@@ -8612,14 +8632,14 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>433</v>
+        <v>112</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8632,26 +8652,24 @@
         <v>80</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K56" t="s" s="2">
         <v>113</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>434</v>
+        <v>114</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>435</v>
+        <v>115</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>116</v>
       </c>
-      <c r="O56" t="s" s="2">
-        <v>199</v>
-      </c>
+      <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>80</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>436</v>
+        <v>120</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>81</v>
@@ -8723,7 +8741,7 @@
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>192</v>
+        <v>110</v>
       </c>
       <c r="AO56" t="s" s="2">
         <v>80</v>
@@ -8741,7 +8759,7 @@
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>80</v>
+        <v>438</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -8754,23 +8772,25 @@
         <v>80</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>202</v>
+        <v>113</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>440</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>116</v>
+      </c>
       <c r="O57" t="s" s="2">
-        <v>440</v>
+        <v>199</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>80</v>
@@ -8819,7 +8839,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>81</v>
@@ -8831,7 +8851,7 @@
         <v>80</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>80</v>
@@ -8843,7 +8863,7 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>441</v>
+        <v>192</v>
       </c>
       <c r="AO57" t="s" s="2">
         <v>80</v>
@@ -8865,10 +8885,10 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>80</v>
@@ -8880,16 +8900,18 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>443</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M58" t="s" s="2">
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
         <v>445</v>
       </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>80</v>
       </c>
@@ -8913,13 +8935,13 @@
         <v>80</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>159</v>
+        <v>80</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>446</v>
+        <v>80</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>447</v>
+        <v>80</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>80</v>
@@ -8940,10 +8962,10 @@
         <v>442</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>80</v>
@@ -8952,7 +8974,7 @@
         <v>104</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>448</v>
+        <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>80</v>
@@ -8961,10 +8983,10 @@
         <v>80</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>428</v>
+        <v>446</v>
       </c>
       <c r="AO58" t="s" s="2">
-        <v>449</v>
+        <v>80</v>
       </c>
       <c r="AP58" t="s" s="2">
         <v>80</v>
@@ -8972,10 +8994,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8983,7 +9005,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>92</v>
@@ -8998,18 +9020,16 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>344</v>
+        <v>448</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="N59" s="2"/>
-      <c r="O59" t="s" s="2">
-        <v>453</v>
-      </c>
+      <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
         <v>80</v>
       </c>
@@ -9033,13 +9053,13 @@
         <v>80</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>80</v>
+        <v>159</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>80</v>
+        <v>451</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>80</v>
+        <v>452</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
@@ -9057,10 +9077,10 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>92</v>
@@ -9072,7 +9092,7 @@
         <v>104</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>80</v>
+        <v>453</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>80</v>
@@ -9081,10 +9101,10 @@
         <v>80</v>
       </c>
       <c r="AN59" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AO59" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>455</v>
       </c>
       <c r="AP59" t="s" s="2">
         <v>80</v>
@@ -9092,10 +9112,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9118,16 +9138,18 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>457</v>
       </c>
-      <c r="L60" t="s" s="2">
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
         <v>458</v>
       </c>
-      <c r="M60" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>80</v>
       </c>
@@ -9175,7 +9197,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>81</v>
@@ -9199,10 +9221,10 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AO60" t="s" s="2">
         <v>460</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>80</v>
       </c>
       <c r="AP60" t="s" s="2">
         <v>80</v>
@@ -9224,7 +9246,7 @@
         <v>81</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>80</v>
@@ -9236,20 +9258,16 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>443</v>
+        <v>462</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>463</v>
-      </c>
-      <c r="N61" t="s" s="2">
         <v>464</v>
       </c>
-      <c r="O61" t="s" s="2">
-        <v>465</v>
-      </c>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>80</v>
       </c>
@@ -9273,13 +9291,13 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="Z61" t="s" s="2">
-        <v>175</v>
+        <v>80</v>
       </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
@@ -9303,7 +9321,7 @@
         <v>81</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>80</v>
@@ -9315,16 +9333,16 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>466</v>
+        <v>80</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="AO61" t="s" s="2">
-        <v>469</v>
+        <v>80</v>
       </c>
       <c r="AP61" t="s" s="2">
         <v>80</v>
@@ -9332,10 +9350,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9346,7 +9364,7 @@
         <v>81</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>80</v>
@@ -9358,16 +9376,20 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>106</v>
+        <v>448</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>107</v>
+        <v>467</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
+        <v>468</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>470</v>
+      </c>
       <c r="P62" t="s" s="2">
         <v>80</v>
       </c>
@@ -9391,13 +9413,13 @@
         <v>80</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>80</v>
+        <v>175</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
@@ -9415,34 +9437,34 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>109</v>
+        <v>466</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>80</v>
+        <v>471</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>80</v>
+        <v>472</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>110</v>
+        <v>473</v>
       </c>
       <c r="AO62" t="s" s="2">
-        <v>80</v>
+        <v>474</v>
       </c>
       <c r="AP62" t="s" s="2">
         <v>80</v>
@@ -9450,21 +9472,21 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>80</v>
@@ -9476,17 +9498,15 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N63" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>80</v>
@@ -9523,31 +9543,31 @@
         <v>80</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>80</v>
@@ -9570,14 +9590,14 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9593,23 +9613,21 @@
         <v>80</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>473</v>
+        <v>114</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>474</v>
+        <v>115</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>476</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>80</v>
       </c>
@@ -9645,19 +9663,19 @@
         <v>80</v>
       </c>
       <c r="AB64" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AC64" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AD64" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>477</v>
+        <v>120</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>81</v>
@@ -9669,7 +9687,7 @@
         <v>80</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>80</v>
@@ -9678,10 +9696,10 @@
         <v>80</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>478</v>
+        <v>80</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>479</v>
+        <v>110</v>
       </c>
       <c r="AO64" t="s" s="2">
         <v>80</v>
@@ -9692,10 +9710,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9706,7 +9724,7 @@
         <v>81</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>80</v>
@@ -9715,19 +9733,23 @@
         <v>80</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>107</v>
+        <v>478</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="N65" s="2"/>
-      <c r="O65" s="2"/>
+        <v>479</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>481</v>
+      </c>
       <c r="P65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9775,19 +9797,19 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>109</v>
+        <v>482</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>80</v>
@@ -9796,10 +9818,10 @@
         <v>80</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>80</v>
+        <v>483</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>110</v>
+        <v>484</v>
       </c>
       <c r="AO65" t="s" s="2">
         <v>80</v>
@@ -9810,21 +9832,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>80</v>
@@ -9836,17 +9858,15 @@
         <v>80</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>116</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>80</v>
@@ -9883,31 +9903,31 @@
         <v>80</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>117</v>
+        <v>80</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>118</v>
+        <v>80</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>80</v>
@@ -9930,21 +9950,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>80</v>
@@ -9953,23 +9973,21 @@
         <v>80</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>483</v>
+        <v>114</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>484</v>
+        <v>115</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="O67" t="s" s="2">
-        <v>486</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>80</v>
       </c>
@@ -10005,31 +10023,31 @@
         <v>80</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>80</v>
+        <v>119</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>487</v>
+        <v>120</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>81</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>80</v>
@@ -10038,10 +10056,10 @@
         <v>80</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>488</v>
+        <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>489</v>
+        <v>110</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>80</v>
@@ -10052,10 +10070,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10078,18 +10096,20 @@
         <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="L68" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="O68" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="M68" t="s" s="2">
-        <v>492</v>
-      </c>
-      <c r="N68" t="s" s="2">
-        <v>493</v>
-      </c>
-      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
@@ -10137,7 +10157,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>81</v>
@@ -10158,10 +10178,10 @@
         <v>80</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="AO68" t="s" s="2">
         <v>80</v>
@@ -10172,10 +10192,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10198,18 +10218,18 @@
         <v>93</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="L69" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>498</v>
       </c>
-      <c r="M69" t="s" s="2">
-        <v>499</v>
-      </c>
-      <c r="N69" s="2"/>
-      <c r="O69" t="s" s="2">
-        <v>500</v>
-      </c>
+      <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>80</v>
       </c>
@@ -10257,7 +10277,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>81</v>
@@ -10272,16 +10292,16 @@
         <v>104</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>502</v>
+        <v>80</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="AO69" t="s" s="2">
         <v>80</v>
@@ -10292,10 +10312,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10318,17 +10338,17 @@
         <v>93</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>106</v>
+        <v>169</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>80</v>
@@ -10377,7 +10397,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>81</v>
@@ -10392,16 +10412,16 @@
         <v>104</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>80</v>
+        <v>507</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AO70" t="s" s="2">
         <v>80</v>
@@ -10412,10 +10432,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10438,19 +10458,17 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>229</v>
+        <v>106</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" t="s" s="2">
         <v>513</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="O71" t="s" s="2">
-        <v>516</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>80</v>
@@ -10499,7 +10517,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>81</v>
@@ -10520,10 +10538,10 @@
         <v>80</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="AO71" t="s" s="2">
         <v>80</v>
@@ -10534,10 +10552,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10560,19 +10578,19 @@
         <v>93</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="O72" t="s" s="2">
         <v>521</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>524</v>
       </c>
       <c r="P72" t="s" s="2">
         <v>80</v>
@@ -10621,7 +10639,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>81</v>
@@ -10642,15 +10660,137 @@
         <v>80</v>
       </c>
       <c r="AM72" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>526</v>
       </c>
-      <c r="AN72" t="s" s="2">
+      <c r="M73" t="s" s="2">
         <v>527</v>
       </c>
-      <c r="AO72" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AP72" t="s" s="2">
+      <c r="N73" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="O73" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="P73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AP73" t="s" s="2">
         <v>80</v>
       </c>
     </row>

--- a/ig/ch-epr-fhir/StructureDefinition-CH.mCSD.Practitioner.xlsx
+++ b/ig/ch-epr-fhir/StructureDefinition-CH.mCSD.Practitioner.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0-ballot</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T13:39:01+00:00</t>
+    <t>2025-12-18T15:54:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,7 +278,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a given and family name. {name.where(family.exists() and given.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}ch-mcsd-practitioner-ihe-conformance:The Practitioner needs to conform to IHE.mCSD.Practitioner {conformsTo('https://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.Practitioner')}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}ch-pract-1:If a HumanName is provided, at least one HumanName must have a family name. {name.where(family.exists()).count()&gt;0 or name.empty()}ch-pract-2:gender unknown is currently not used in Switzerland in eCH and the EPR {gender.empty() or gender!='unknown'}ch-mcsd-practitioner-ihe-conformance:The Practitioner needs to conform to IHE.mCSD.Practitioner {conformsTo('https://profiles.ihe.net/ITI/mCSD/StructureDefinition/IHE.mCSD.Practitioner')}</t>
   </si>
   <si>
     <t>HCProfessional</t>
@@ -454,7 +454,7 @@
     <t>Practitioner.meta.profile</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
+    <t xml:space="preserve">canonical(StructureDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -492,7 +492,7 @@
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+    <t>http://hl7.org/fhir/ValueSet/security-labels|4.0.1</t>
   </si>
   <si>
     <t>Meta.security</t>
@@ -516,7 +516,7 @@
     <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+    <t>http://hl7.org/fhir/ValueSet/common-tags|4.0.1</t>
   </si>
   <si>
     <t>Meta.tag</t>
@@ -559,7 +559,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -1061,7 +1061,7 @@
     <t>salutationandtitle</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-EN-qualifier|5.2.0}
+    <t xml:space="preserve">Extension {iso21090-EN-qualifier|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -1830,7 +1830,7 @@
     <t>Practitioner.qualification.issuer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -7418,7 +7418,7 @@
         <v>83</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>81</v>
+        <v>294</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>122</v>
